--- a/biology/Zoologie/Embioptera/Embioptera.xlsx
+++ b/biology/Zoologie/Embioptera/Embioptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Embioptera (les embioptères) est un ordre d'insectes, de la sous-classe des ptérygotes, de la section des néoptères et du super-ordre des polynéoptères.
 Ce sont de petits insectes au corps allongé (douze millimètres au plus), qui ont un développement de type hémimétabole.
-Ils se distinguent presque tous par des pattes antérieures aux extrémités (tarses) enflées et ovales, contenant de nombreuses glandes sécrétant une soie. On en connaissait environ 200 espèces au début des années 1980[1]
+Ils se distinguent presque tous par des pattes antérieures aux extrémités (tarses) enflées et ovales, contenant de nombreuses glandes sécrétant une soie. On en connaissait environ 200 espèces au début des années 1980
 Ces insectes se rencontrent rarement. Ils vivent principalement dans les régions tropicales, en petits groupes (d'une vingtaine environ) dans des galeries ou étuis de soie. Ces abris sont tissés sur des écorces d'arbres, dans le sol ou la boue, dans les débris de la litière, sous des pierres.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques espèces vivent en Europe du Sud et de l'Est (Balkans), en Amérique du Nord (9 espèces), alors que l'Australie et la Nouvelle-Zélande en comptent environ 70 espèces.
 </t>
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Yeux composés (pas d'ocelles supplémentaires)
 Pièces buccales : broyeuses
@@ -579,7 +595,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fragments de plantes, (pollens ?) et débris de végétaux morts.
 </t>
@@ -610,9 +628,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-ordre Clothododea
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous-ordre Clothododea
 Clothodidae Enderlein 1909
 Sous-ordre Neoembiodea Engel &amp; Grimaldi 2006
 Andesembiidae Ross 2003
@@ -624,8 +644,43 @@
 Oligotomidae Enderlein 1909
 Paedembiidae Ross 2006
 Teratembiidae Krauss 1911
-†Sorellembiidae Engel &amp; Grimaldi 2006 (fossile)
-Position phylogénétique
+†Sorellembiidae Engel &amp; Grimaldi 2006 (fossile)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Embioptera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Embioptera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Position phylogénétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hexapodes
 Insectes
 Archéognathes
